--- a/lab_3/economics.xlsx
+++ b/lab_3/economics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Repos\knu-2nd\EcologyAndEconomics\lab_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BE4FB8-4F54-4E86-ABF6-2EE008E09A4D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65262D4F-F06E-42FE-8761-16970222FF02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BA0DFAE9-CB96-49CE-B351-DF8ACA6B8C75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA0DFAE9-CB96-49CE-B351-DF8ACA6B8C75}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Price</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>Subsidy</t>
+  </si>
+  <si>
+    <t>Stability</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
+    <t>Es</t>
   </si>
 </sst>
 </file>
@@ -111,11 +120,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -125,6 +131,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2954,10 +2966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2979BB-D435-49FA-9C20-BBDF89E60FB7}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2986,195 +2998,195 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1.3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>103</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>56.086*LN(A2)-15.81</f>
         <v>-1.095037863076298</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f>-50.78*LN(A2)+120.31</f>
         <v>106.9871426503408</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f>56.086*LN(A2+$C$11)-15.81</f>
         <v>28.411419513390456</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2.5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>82</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>29</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f t="shared" ref="D3:D9" si="0">56.086*LN(A3)-15.81</f>
         <v>35.58108198789386</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f t="shared" ref="E3:E9" si="1">-50.78*LN(A3)+120.31</f>
         <v>73.780756635430407</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f t="shared" ref="F3:F9" si="2">56.086*LN(A3+$C$11)-15.81</f>
         <v>52.826668857957969</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2.8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>67</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>38</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>41.937234632022431</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f t="shared" si="1"/>
         <v>68.025925995540788</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f t="shared" si="2"/>
         <v>57.569154522899922</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3.5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>53</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>48</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>54.452463851031212</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" si="1"/>
         <v>56.694696459805208</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f t="shared" si="2"/>
         <v>67.287272282275552</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4.7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>44</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>60</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>70.986590863846303</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="1"/>
         <v>41.72477580740086</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f t="shared" si="2"/>
         <v>80.813087400907534</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5.6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>36</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>83</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>80.813087400907534</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="1"/>
         <v>32.827912166706767</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" si="2"/>
         <v>89.171896893702652</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6.3</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>27</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>91</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>87.419066738731445</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f t="shared" si="1"/>
         <v>26.846889616075615</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f t="shared" si="2"/>
         <v>94.908308425470423</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7.2</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>106</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>94.908308425470423</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f t="shared" si="1"/>
         <v>20.066165498602345</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f t="shared" si="2"/>
         <v>101.51428776329436</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4">
+      <c r="B11" s="6"/>
+      <c r="C11" s="3">
         <v>0.9</v>
       </c>
     </row>
@@ -3182,13 +3194,13 @@
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>3.5741938898076375</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>3.1302504181910829</v>
       </c>
     </row>
@@ -3196,14 +3208,14 @@
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <f>56.086*LN(B13)-15.81</f>
         <v>55.628962870922734</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f>56.086*LN(E13+$C$11)-15.81</f>
         <v>62.364265954151747</v>
       </c>
@@ -3212,14 +3224,14 @@
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <f>-50.78*LN(B13)+120.31</f>
         <v>55.629499793434078</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f>-50.78*LN(E13)+120.31</f>
         <v>62.364281496231627</v>
       </c>
@@ -3228,16 +3240,41 @@
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <f>B15-B14</f>
         <v>5.3692251134407343E-4</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f>E15-E14</f>
         <v>1.5542079879082848E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <f>-50.78/B15</f>
+        <v>-0.91282503327476505</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f>IF(ABS(B18)=B19,"quasi-stable",IF(ABS(B18)&gt;B19,"stable","unstable"))</f>
+        <v>unstable</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <f>56.086/B14</f>
+        <v>1.0082158125100722</v>
       </c>
     </row>
   </sheetData>
@@ -3252,7 +3289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4575B05-6DE4-4EC1-B70C-C95D3972E55E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
